--- a/DataPreprocessing/1.list_it_solutions.xlsx
+++ b/DataPreprocessing/1.list_it_solutions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="3285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="3290"/>
   </bookViews>
   <sheets>
     <sheet name="I&amp;T Solutions (Centrial DB)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2146">
   <si>
     <t>Reference Code</t>
   </si>
@@ -5547,9 +5547,6 @@
 </t>
   </si>
   <si>
-    <t>S-0163</t>
-  </si>
-  <si>
     <t>Ai-Knowie</t>
   </si>
   <si>
@@ -5935,9 +5932,6 @@
 10. Wearables - As an example, a smart watch may capture biometric readings and use this medical data to improve patient treatment, prevent illness or even detect emergencies and notify the proper authorities. Data could also connect with health insurance providers to access discounts for exercising. Dynatrace can help to show if the connections are working, and if issues occur, locate problem points down to the OS and code level for faster repair or resolution.</t>
   </si>
   <si>
-    <t>S-0152</t>
-  </si>
-  <si>
     <t>Datax</t>
   </si>
   <si>
@@ -10209,6 +10203,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ebsite</t>
     </r>
@@ -10808,6 +10803,96 @@
   </si>
   <si>
     <t>https://noq.hk, https://redso.com.hk</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-0152</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-0163</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-0322</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-0300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Guiding Robot</t>
+  </si>
+  <si>
+    <t>智能帶路機械人</t>
+  </si>
+  <si>
+    <t>Win Win Industrial Company Ltd</t>
+  </si>
+  <si>
+    <t>榮榮工業有限公司</t>
+  </si>
+  <si>
+    <t>Customized, Cloud-based, Intelligent Humanoid Service Robot.  Customers could interact with Cruzr via voice, visual video /picture and text. It is more convenient and efficient to get the product information and location with the guidance of Cruzr.  When Cruzr in stand by mode, it would welcome, inform and guide customer in an innovative way; Providing unique entertainment in an unique way.  Cruzr could guide the customer to the designated area and an introduction upon requirement.  The navigation is powered by U-SLAM, an abbreviation of UBTECH SLAM (simultaneous localization and mapping), which uses real-time positioning and mapping to avoid obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Services
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Processing
+</t>
+  </si>
+  <si>
+    <t>Retail Store Case
+1.	Welcome, inform and guide customer in an innovative way; Providing unique entertainment in an unique way.
+2.	Extend the customer's vision of the industry through the “Lecture” function, trigger related consumption; increase customer retention time through entertainment functions such as “Challenge Juxiaoran”.
+3.	Greet, collect information and troubleshoot enquiries.
+Ali Koubei smart restaurant
+1.	When Cruzr sees customer, Cruzr will welcome customer actively which makes customers feel home away from home.
+2.	Cruzr could guide the customer to the reserved table and recommend relevant dishes.
+3.	Customer could complete their current order, add new orders, arrange payment and leave restaurant rating via Cruzr. 
+4.	Customer could learn about the background of the brand or dishes via Cruzr. When finishing their meals, Cruzr could also issues some coupons to attract customer to visit again. 
+Airports
+1.	Explaining to traveler information with video and picture which is more impressive. The humanoid appearance of Cruzr could easily raise attention and curiosity of travelers.
+2.	Customized, comprehensive and expandable cloud-based Q&amp;A system.
+3.	Remote video customer service as backup.
+4.	Providing inquiry service such as membership information and member points inquiry, and pushing airport information, airline information and shops information etc.
+5.	Introducing tourist attractions.
+VIVO smart retailing shop
+1.	Customers could interact with Cruzr via voice, visual video /picture and text. It is more convenient and efficient to get the product information and location with the guidance of Cruzr.
+2.	Being proactive, expressive, attractive and mobile, Cruzr could advertise products and improving customer experience with the products which results in buying rate of the products.
+3.	Provide member registration service and answer the inquiries from the customers. 
+4.	Gather comprehensive data to enrich customer base and generate shopper insights for VIVO.</t>
+  </si>
+  <si>
+    <t>NB-IoT / LoRa Dual-detection Smart Parking Sensing Technology</t>
+  </si>
+  <si>
+    <t>NB-IoT / LoRa 雙重技術車位智能探測</t>
+  </si>
+  <si>
+    <t>INFA Systems Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB-IoT / LoRa Dual-detection parking occupancy sensing system can accurately sense the occupancy status of parking space(s) by fully integrated dual-detection from Radar/ mmWave and Magnetometer sensing. With leading technologies of NB-IoT and LoRa WAN, the end to end system is easy to use and can be rapidly deployed. The system also provides cross-system integration for various payment methods including self-help automatic payment, membership payment, and on-site payment. Data is clearly displayed on the parking operation platform including parking space status, vehicle status, turnover rate, illegal parking behavior and so many more.
+</t>
+  </si>
+  <si>
+    <t>1) Privacy: Avoid using the camera system for license plate and individual’s face which may also shown, causing privacy concerns;
+2) Low Cost: Parking timer sensor installation and maintenance costs are much lower than the camera;
+3) Mobile app: Interconnected with APP to navigate driver with parking;
+4) Special Parking Management: 
+- Detect and Alarm no parking / u-turn area. 
+- Interlink with speaker for disability and night safety parking. 
+- Charge commercial vehicle by number, hour, and time, such as taxi, temporary parking, and loading zone parking. 
+- Detect scooter and heavy motorcycle parking space. 
+- Detect and manage shared parking. 
+- Confirm VIP or special user has parked in the appointed space.</t>
+  </si>
+  <si>
+    <t>www.hkroboratory.com</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -10815,7 +10900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -10827,46 +10912,55 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -10878,6 +10972,28 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -10905,7 +11021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10937,6 +11053,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11219,22 +11344,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J273"/>
+  <dimension ref="A1:J275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="10" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.69921875" customWidth="1"/>
+    <col min="4" max="5" width="20.69921875" customWidth="1"/>
+    <col min="6" max="10" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11263,10 +11388,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>531</v>
       </c>
@@ -11289,10 +11414,10 @@
         <v>537</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -11321,10 +11446,10 @@
         <v>170</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -11350,10 +11475,10 @@
         <v>178</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -11376,10 +11501,10 @@
         <v>153</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -11402,10 +11527,10 @@
         <v>146</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -11431,10 +11556,10 @@
         <v>161</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -11463,10 +11588,10 @@
         <v>139</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -11489,10 +11614,10 @@
         <v>131</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -11521,10 +11646,10 @@
         <v>124</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -11553,10 +11678,10 @@
         <v>119</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -11585,10 +11710,10 @@
         <v>112</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -11617,10 +11742,10 @@
         <v>103</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -11649,10 +11774,10 @@
         <v>96</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -11675,10 +11800,10 @@
         <v>87</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -11701,10 +11826,10 @@
         <v>82</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -11727,10 +11852,10 @@
         <v>77</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -11753,10 +11878,10 @@
         <v>72</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -11779,10 +11904,10 @@
         <v>60</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -11805,10 +11930,10 @@
         <v>54</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>944</v>
       </c>
@@ -11834,10 +11959,10 @@
         <v>950</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>398</v>
       </c>
@@ -11860,10 +11985,10 @@
         <v>403</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>481</v>
       </c>
@@ -11889,10 +12014,10 @@
         <v>488</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>473</v>
       </c>
@@ -11918,10 +12043,10 @@
         <v>480</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -11944,10 +12069,10 @@
         <v>47</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -11970,10 +12095,10 @@
         <v>42</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>489</v>
       </c>
@@ -11996,10 +12121,10 @@
         <v>495</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -12028,10 +12153,10 @@
         <v>35</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -12060,10 +12185,10 @@
         <v>26</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>846</v>
       </c>
@@ -12086,10 +12211,10 @@
         <v>840</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -12118,10 +12243,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>538</v>
       </c>
@@ -12150,10 +12275,10 @@
         <v>545</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>789</v>
       </c>
@@ -12182,10 +12307,10 @@
         <v>781</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>797</v>
       </c>
@@ -12214,10 +12339,10 @@
         <v>790</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -12240,10 +12365,10 @@
         <v>66</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>510</v>
       </c>
@@ -12272,10 +12397,10 @@
         <v>518</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>524</v>
       </c>
@@ -12304,10 +12429,10 @@
         <v>530</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>519</v>
       </c>
@@ -12333,10 +12458,10 @@
         <v>523</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>502</v>
       </c>
@@ -12365,10 +12490,10 @@
         <v>509</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>496</v>
       </c>
@@ -12391,10 +12516,10 @@
         <v>501</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>464</v>
       </c>
@@ -12423,10 +12548,10 @@
         <v>472</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>455</v>
       </c>
@@ -12455,42 +12580,42 @@
         <v>463</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B43" t="s">
         <v>1063</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1064</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1065</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1066</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>1067</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>1068</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>1069</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>1070</v>
       </c>
-      <c r="I43" t="s">
-        <v>1071</v>
-      </c>
       <c r="J43" s="10" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>448</v>
       </c>
@@ -12516,10 +12641,10 @@
         <v>454</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>442</v>
       </c>
@@ -12545,10 +12670,10 @@
         <v>447</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>434</v>
       </c>
@@ -12574,10 +12699,10 @@
         <v>441</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>424</v>
       </c>
@@ -12603,10 +12728,10 @@
         <v>428</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>429</v>
       </c>
@@ -12635,10 +12760,10 @@
         <v>433</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -12664,10 +12789,10 @@
         <v>380</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>418</v>
       </c>
@@ -12693,10 +12818,10 @@
         <v>423</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>411</v>
       </c>
@@ -12725,10 +12850,10 @@
         <v>417</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>404</v>
       </c>
@@ -12757,10 +12882,10 @@
         <v>410</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>390</v>
       </c>
@@ -12789,10 +12914,10 @@
         <v>397</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>381</v>
       </c>
@@ -12821,10 +12946,10 @@
         <v>389</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>365</v>
       </c>
@@ -12850,10 +12975,10 @@
         <v>372</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -12882,10 +13007,10 @@
         <v>364</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>350</v>
       </c>
@@ -12908,10 +13033,10 @@
         <v>355</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>344</v>
       </c>
@@ -12937,10 +13062,10 @@
         <v>349</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -12966,10 +13091,10 @@
         <v>343</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -12998,10 +13123,10 @@
         <v>335</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -13024,10 +13149,10 @@
         <v>326</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -13056,10 +13181,10 @@
         <v>319</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -13088,10 +13213,10 @@
         <v>312</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>299</v>
       </c>
@@ -13120,10 +13245,10 @@
         <v>305</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>290</v>
       </c>
@@ -13152,10 +13277,10 @@
         <v>298</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>284</v>
       </c>
@@ -13178,10 +13303,10 @@
         <v>289</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>277</v>
       </c>
@@ -13204,10 +13329,10 @@
         <v>283</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>268</v>
       </c>
@@ -13236,10 +13361,10 @@
         <v>276</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -13268,10 +13393,10 @@
         <v>267</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -13297,10 +13422,10 @@
         <v>258</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>246</v>
       </c>
@@ -13323,10 +13448,10 @@
         <v>251</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>239</v>
       </c>
@@ -13349,10 +13474,10 @@
         <v>245</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>232</v>
       </c>
@@ -13375,10 +13500,10 @@
         <v>238</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -13407,10 +13532,10 @@
         <v>231</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -13436,10 +13561,10 @@
         <v>222</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -13468,10 +13593,10 @@
         <v>214</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -13494,10 +13619,10 @@
         <v>207</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -13520,42 +13645,42 @@
         <v>200</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C79" t="s">
         <v>1447</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>1448</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>1449</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>1450</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>1451</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>1452</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>1453</v>
       </c>
-      <c r="H79" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1455</v>
-      </c>
       <c r="J79" s="10" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -13581,10 +13706,10 @@
         <v>193</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>546</v>
       </c>
@@ -13613,10 +13738,10 @@
         <v>185</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>554</v>
       </c>
@@ -13645,10 +13770,10 @@
         <v>547</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>561</v>
       </c>
@@ -13677,10 +13802,10 @@
         <v>555</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>567</v>
       </c>
@@ -13703,10 +13828,10 @@
         <v>562</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>600</v>
       </c>
@@ -13735,10 +13860,10 @@
         <v>595</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>573</v>
       </c>
@@ -13764,10 +13889,10 @@
         <v>568</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>580</v>
       </c>
@@ -13791,7 +13916,7 @@
       </c>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>587</v>
       </c>
@@ -13817,10 +13942,10 @@
         <v>581</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>594</v>
       </c>
@@ -13846,10 +13971,10 @@
         <v>588</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>609</v>
       </c>
@@ -13878,10 +14003,10 @@
         <v>601</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>616</v>
       </c>
@@ -13904,10 +14029,10 @@
         <v>610</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>623</v>
       </c>
@@ -13933,10 +14058,10 @@
         <v>617</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>631</v>
       </c>
@@ -13962,10 +14087,10 @@
         <v>624</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>637</v>
       </c>
@@ -13994,10 +14119,10 @@
         <v>632</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>645</v>
       </c>
@@ -14023,10 +14148,10 @@
         <v>638</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>653</v>
       </c>
@@ -14055,10 +14180,10 @@
         <v>646</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>659</v>
       </c>
@@ -14081,10 +14206,10 @@
         <v>654</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>666</v>
       </c>
@@ -14107,10 +14232,10 @@
         <v>660</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>674</v>
       </c>
@@ -14139,10 +14264,10 @@
         <v>667</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>681</v>
       </c>
@@ -14168,10 +14293,10 @@
         <v>675</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>687</v>
       </c>
@@ -14194,10 +14319,10 @@
         <v>682</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>696</v>
       </c>
@@ -14226,10 +14351,10 @@
         <v>688</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>702</v>
       </c>
@@ -14252,10 +14377,10 @@
         <v>697</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>709</v>
       </c>
@@ -14281,10 +14406,10 @@
         <v>703</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>720</v>
       </c>
@@ -14307,10 +14432,10 @@
         <v>715</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>714</v>
       </c>
@@ -14333,10 +14458,10 @@
         <v>710</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>726</v>
       </c>
@@ -14359,12 +14484,12 @@
         <v>721</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B108" t="s">
         <v>733</v>
@@ -14391,10 +14516,10 @@
         <v>727</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>740</v>
       </c>
@@ -14405,7 +14530,7 @@
         <v>738</v>
       </c>
       <c r="D109" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E109" t="s">
         <v>730</v>
@@ -14423,10 +14548,10 @@
         <v>734</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>749</v>
       </c>
@@ -14456,7 +14581,7 @@
       </c>
       <c r="J110" s="10"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>758</v>
       </c>
@@ -14485,10 +14610,10 @@
         <v>750</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>765</v>
       </c>
@@ -14511,10 +14636,10 @@
         <v>759</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>771</v>
       </c>
@@ -14537,10 +14662,10 @@
         <v>766</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>780</v>
       </c>
@@ -14569,10 +14694,10 @@
         <v>772</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>810</v>
       </c>
@@ -14595,10 +14720,10 @@
         <v>805</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>833</v>
       </c>
@@ -14621,10 +14746,10 @@
         <v>828</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>804</v>
       </c>
@@ -14647,42 +14772,42 @@
         <v>798</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C118" t="s">
         <v>1809</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>1810</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>1811</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>1812</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>1813</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" t="s">
         <v>1814</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>1815</v>
       </c>
-      <c r="H118" t="s">
-        <v>1816</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1817</v>
-      </c>
       <c r="J118" s="10" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>818</v>
       </c>
@@ -14711,10 +14836,10 @@
         <v>811</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>827</v>
       </c>
@@ -14743,10 +14868,10 @@
         <v>819</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>839</v>
       </c>
@@ -14772,36 +14897,36 @@
         <v>834</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D122" t="s">
         <v>1709</v>
       </c>
-      <c r="B122" t="s">
+      <c r="F122" t="s">
         <v>1710</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>1711</v>
       </c>
-      <c r="F122" t="s">
+      <c r="H122" t="s">
         <v>1712</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
         <v>1713</v>
       </c>
-      <c r="H122" t="s">
-        <v>1714</v>
-      </c>
-      <c r="I122" t="s">
-        <v>1715</v>
-      </c>
       <c r="J122" s="10" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>855</v>
       </c>
@@ -14830,10 +14955,10 @@
         <v>847</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>872</v>
       </c>
@@ -14859,10 +14984,10 @@
         <v>865</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>864</v>
       </c>
@@ -14891,10 +15016,10 @@
         <v>856</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>878</v>
       </c>
@@ -14917,36 +15042,36 @@
         <v>873</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D127" t="s">
         <v>1890</v>
       </c>
-      <c r="B127" t="s">
+      <c r="F127" t="s">
         <v>1891</v>
       </c>
-      <c r="D127" t="s">
+      <c r="G127" t="s">
         <v>1892</v>
       </c>
-      <c r="F127" t="s">
+      <c r="H127" t="s">
         <v>1893</v>
       </c>
-      <c r="G127" t="s">
+      <c r="I127" t="s">
         <v>1894</v>
       </c>
-      <c r="H127" t="s">
-        <v>1895</v>
-      </c>
-      <c r="I127" t="s">
-        <v>1896</v>
-      </c>
       <c r="J127" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>885</v>
       </c>
@@ -14969,10 +15094,10 @@
         <v>879</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>893</v>
       </c>
@@ -15001,10 +15126,10 @@
         <v>886</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>902</v>
       </c>
@@ -15033,10 +15158,10 @@
         <v>894</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>909</v>
       </c>
@@ -15059,73 +15184,73 @@
         <v>903</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D132" t="s">
         <v>1224</v>
       </c>
-      <c r="B132" t="s">
+      <c r="F132" t="s">
         <v>1225</v>
       </c>
-      <c r="D132" t="s">
+      <c r="G132" t="s">
         <v>1226</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1228</v>
       </c>
       <c r="H132" t="s">
         <v>471</v>
       </c>
       <c r="I132" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B133" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D133" t="s">
         <v>890</v>
       </c>
       <c r="E133" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F133" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
       </c>
       <c r="H133" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I133" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C134" t="s">
         <v>1211</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1213</v>
       </c>
       <c r="D134" t="s">
         <v>551</v>
@@ -15134,27 +15259,27 @@
         <v>551</v>
       </c>
       <c r="F134" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H134" t="s">
         <v>1214</v>
       </c>
-      <c r="G134" t="s">
+      <c r="I134" t="s">
         <v>1215</v>
       </c>
-      <c r="H134" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I134" t="s">
-        <v>1217</v>
-      </c>
       <c r="J134" s="10" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B135" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D135" t="s">
         <v>1030</v>
@@ -15163,323 +15288,323 @@
         <v>1030</v>
       </c>
       <c r="F135" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
       </c>
       <c r="H135" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I135" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B136" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D136" t="s">
         <v>1030</v>
       </c>
       <c r="E136" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F136" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
       </c>
       <c r="H136" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I136" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B137" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D137" t="s">
         <v>1030</v>
       </c>
       <c r="E137" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F137" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
       </c>
       <c r="H137" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I137" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B138" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D138" t="s">
         <v>1030</v>
       </c>
       <c r="E138" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F138" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
       </c>
       <c r="H138" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="I138" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B139" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D139" t="s">
         <v>1030</v>
       </c>
       <c r="E139" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F139" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
       </c>
       <c r="H139" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="I139" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B140" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D140" t="s">
         <v>1030</v>
       </c>
       <c r="E140" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F140" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G140" t="s">
         <v>40</v>
       </c>
       <c r="H140" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I140" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B141" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D141" t="s">
         <v>1030</v>
       </c>
       <c r="F141" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H141" t="s">
         <v>1170</v>
       </c>
-      <c r="G141" t="s">
+      <c r="I141" t="s">
         <v>1171</v>
       </c>
-      <c r="H141" t="s">
+      <c r="J141" s="10" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>1172</v>
       </c>
-      <c r="I141" t="s">
+      <c r="B142" t="s">
         <v>1173</v>
       </c>
-      <c r="J141" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="D142" t="s">
         <v>1174</v>
       </c>
-      <c r="B142" t="s">
+      <c r="F142" t="s">
         <v>1175</v>
       </c>
-      <c r="D142" t="s">
+      <c r="G142" t="s">
         <v>1176</v>
       </c>
-      <c r="F142" t="s">
+      <c r="H142" t="s">
         <v>1177</v>
       </c>
-      <c r="G142" t="s">
+      <c r="I142" t="s">
         <v>1178</v>
       </c>
-      <c r="H142" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1180</v>
-      </c>
       <c r="J142" s="10" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B143" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D143" t="s">
         <v>1030</v>
       </c>
       <c r="E143" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F143" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
       </c>
       <c r="H143" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I143" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B144" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D144" t="s">
         <v>1030</v>
       </c>
       <c r="E144" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F144" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G144" t="s">
         <v>40</v>
       </c>
       <c r="H144" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I144" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C145" t="s">
         <v>1155</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>1156</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>1157</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>1158</v>
       </c>
-      <c r="E145" t="s">
+      <c r="G145" t="s">
         <v>1159</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1161</v>
       </c>
       <c r="H145" t="s">
         <v>471</v>
       </c>
       <c r="I145" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B146" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D146" t="s">
         <v>1030</v>
       </c>
       <c r="E146" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F146" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -15488,114 +15613,114 @@
         <v>625</v>
       </c>
       <c r="I146" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C147" t="s">
         <v>1136</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>1137</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F147" t="s">
         <v>1138</v>
       </c>
-      <c r="D147" t="s">
+      <c r="G147" t="s">
         <v>1139</v>
       </c>
-      <c r="E147" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>1140</v>
       </c>
-      <c r="G147" t="s">
+      <c r="I147" t="s">
         <v>1141</v>
       </c>
-      <c r="H147" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I147" t="s">
-        <v>1143</v>
-      </c>
       <c r="J147" s="10" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C148" t="s">
         <v>1127</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>1128</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>1129</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>1130</v>
       </c>
-      <c r="E148" t="s">
+      <c r="G148" t="s">
         <v>1131</v>
       </c>
-      <c r="F148" t="s">
+      <c r="H148" t="s">
         <v>1132</v>
       </c>
-      <c r="G148" t="s">
+      <c r="I148" t="s">
         <v>1133</v>
       </c>
-      <c r="H148" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1135</v>
-      </c>
       <c r="J148" s="10" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B149" t="s">
         <v>1122</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1123</v>
       </c>
       <c r="D149" t="s">
         <v>1030</v>
       </c>
       <c r="F149" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
       </c>
       <c r="H149" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I149" t="s">
         <v>1125</v>
       </c>
-      <c r="I149" t="s">
-        <v>1126</v>
-      </c>
       <c r="J149" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B150" t="s">
         <v>1118</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1119</v>
       </c>
       <c r="D150" t="s">
         <v>1030</v>
       </c>
       <c r="F150" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -15604,271 +15729,271 @@
         <v>41</v>
       </c>
       <c r="I150" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B151" t="s">
         <v>1104</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>1105</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>1106</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>1107</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>1108</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>1109</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" s="10" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>1110</v>
       </c>
-      <c r="J151" s="10" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>1111</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>1112</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>1113</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>1114</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>1115</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>1116</v>
       </c>
-      <c r="I152" t="s">
-        <v>1117</v>
-      </c>
       <c r="J152" s="10" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C153" t="s">
         <v>1488</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>1489</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
         <v>1490</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>1491</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G153" t="s">
         <v>1492</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1494</v>
       </c>
       <c r="H153" t="s">
         <v>639</v>
       </c>
       <c r="I153" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B154" t="s">
         <v>1088</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>1089</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>1090</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>1091</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>1092</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>1093</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>1094</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>1095</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" s="10" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>1096</v>
       </c>
-      <c r="J154" s="10" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>1097</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>1098</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>1099</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>1100</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>1101</v>
-      </c>
-      <c r="G155" t="s">
-        <v>1102</v>
       </c>
       <c r="H155" t="s">
         <v>471</v>
       </c>
       <c r="I155" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B156" t="s">
         <v>1080</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>1081</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>1082</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>1083</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>1084</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>1085</v>
-      </c>
-      <c r="G156" t="s">
-        <v>1086</v>
       </c>
       <c r="H156" t="s">
         <v>471</v>
       </c>
       <c r="I156" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B157" t="s">
         <v>1072</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>1073</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>1074</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>1075</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>1076</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>1077</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>1078</v>
       </c>
-      <c r="I157" t="s">
-        <v>1079</v>
-      </c>
       <c r="J157" s="10" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B158" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D158" t="s">
         <v>1053</v>
       </c>
       <c r="F158" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I158" t="s">
         <v>1417</v>
       </c>
-      <c r="G158" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1419</v>
-      </c>
       <c r="J158" s="10" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B159" t="s">
         <v>1057</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>1058</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>1059</v>
-      </c>
-      <c r="F159" t="s">
-        <v>1060</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
       </c>
       <c r="H159" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I159" t="s">
         <v>1061</v>
       </c>
-      <c r="I159" t="s">
-        <v>1062</v>
-      </c>
       <c r="J159" s="10" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1051</v>
       </c>
@@ -15891,10 +16016,10 @@
         <v>1056</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1044</v>
       </c>
@@ -15923,10 +16048,10 @@
         <v>1050</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1039</v>
       </c>
@@ -15949,10 +16074,10 @@
         <v>1043</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1034</v>
       </c>
@@ -15975,10 +16100,10 @@
         <v>1038</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1028</v>
       </c>
@@ -16001,10 +16126,10 @@
         <v>1033</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1021</v>
       </c>
@@ -16033,42 +16158,42 @@
         <v>1027</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C166" t="s">
         <v>1721</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F166" t="s">
         <v>1722</v>
       </c>
-      <c r="C166" t="s">
+      <c r="G166" t="s">
         <v>1723</v>
       </c>
-      <c r="D166" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="H166" t="s">
         <v>1724</v>
       </c>
-      <c r="G166" t="s">
+      <c r="I166" t="s">
         <v>1725</v>
       </c>
-      <c r="H166" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1727</v>
-      </c>
       <c r="J166" s="10" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1012</v>
       </c>
@@ -16097,10 +16222,10 @@
         <v>1020</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1006</v>
       </c>
@@ -16129,10 +16254,10 @@
         <v>1011</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>999</v>
       </c>
@@ -16155,10 +16280,10 @@
         <v>1005</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>991</v>
       </c>
@@ -16187,10 +16312,10 @@
         <v>998</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>984</v>
       </c>
@@ -16213,10 +16338,10 @@
         <v>990</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>976</v>
       </c>
@@ -16245,10 +16370,10 @@
         <v>983</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>967</v>
       </c>
@@ -16277,10 +16402,10 @@
         <v>975</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>960</v>
       </c>
@@ -16307,7 +16432,7 @@
       </c>
       <c r="J174" s="10"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>951</v>
       </c>
@@ -16336,42 +16461,42 @@
         <v>959</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C176" t="s">
         <v>1555</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>1556</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>1557</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
         <v>1558</v>
       </c>
-      <c r="E176" t="s">
+      <c r="G176" t="s">
         <v>1559</v>
       </c>
-      <c r="F176" t="s">
+      <c r="H176" t="s">
         <v>1560</v>
       </c>
-      <c r="G176" t="s">
+      <c r="I176" t="s">
         <v>1561</v>
       </c>
-      <c r="H176" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1563</v>
-      </c>
       <c r="J176" s="10" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>937</v>
       </c>
@@ -16397,10 +16522,10 @@
         <v>943</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>930</v>
       </c>
@@ -16423,37 +16548,37 @@
         <v>936</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C179" t="s">
         <v>1664</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>1665</v>
       </c>
-      <c r="C179" t="s">
+      <c r="F179" t="s">
         <v>1666</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1668</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
       </c>
       <c r="H179" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="I179" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="J179" s="10"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>924</v>
       </c>
@@ -16479,10 +16604,10 @@
         <v>929</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>910</v>
       </c>
@@ -16511,18 +16636,18 @@
         <v>917</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C182" t="s">
         <v>1572</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1574</v>
       </c>
       <c r="D182" t="s">
         <v>913</v>
@@ -16531,22 +16656,22 @@
         <v>914</v>
       </c>
       <c r="F182" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G182" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H182" t="s">
         <v>46</v>
       </c>
       <c r="I182" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>918</v>
       </c>
@@ -16569,117 +16694,117 @@
         <v>923</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C184" t="s">
         <v>1564</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>1565</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>1566</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>1567</v>
       </c>
-      <c r="E184" t="s">
+      <c r="G184" t="s">
         <v>1568</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1570</v>
       </c>
       <c r="H184" t="s">
         <v>487</v>
       </c>
       <c r="I184" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C185" t="s">
         <v>1547</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>1548</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" t="s">
         <v>1549</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" t="s">
         <v>1550</v>
       </c>
-      <c r="E185" t="s">
+      <c r="G185" t="s">
         <v>1551</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1553</v>
       </c>
       <c r="H185" t="s">
         <v>487</v>
       </c>
       <c r="I185" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F186" t="s">
         <v>1764</v>
       </c>
-      <c r="B186" t="s">
+      <c r="G186" t="s">
         <v>1765</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G186" t="s">
-        <v>1767</v>
       </c>
       <c r="H186" t="s">
         <v>625</v>
       </c>
       <c r="I186" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C187" t="s">
         <v>1540</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
         <v>1541</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>1542</v>
       </c>
-      <c r="D187" t="s">
+      <c r="F187" t="s">
         <v>1543</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1545</v>
       </c>
       <c r="G187" t="s">
         <v>40</v>
@@ -16688,520 +16813,520 @@
         <v>683</v>
       </c>
       <c r="I187" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="J187" s="10" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J188" s="10" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J189" s="10" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1470</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J188" s="10" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J189" s="10" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C190" t="s">
         <v>1525</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>1526</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1528</v>
       </c>
       <c r="E190" t="s">
         <v>745</v>
       </c>
       <c r="F190" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="G190" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H190" t="s">
         <v>257</v>
       </c>
       <c r="I190" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D191" t="s">
         <v>1517</v>
       </c>
-      <c r="B191" t="s">
+      <c r="E191" t="s">
         <v>1518</v>
       </c>
-      <c r="D191" t="s">
+      <c r="F191" t="s">
         <v>1519</v>
       </c>
-      <c r="E191" t="s">
+      <c r="G191" t="s">
         <v>1520</v>
       </c>
-      <c r="F191" t="s">
+      <c r="H191" t="s">
         <v>1521</v>
       </c>
-      <c r="G191" t="s">
+      <c r="I191" t="s">
         <v>1522</v>
       </c>
-      <c r="H191" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I191" t="s">
-        <v>1524</v>
-      </c>
       <c r="J191" s="10" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F192" t="s">
         <v>1512</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1514</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
       </c>
       <c r="H192" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="I192" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="J192" s="10"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D193" t="s">
         <v>1505</v>
       </c>
-      <c r="B193" t="s">
+      <c r="E193" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F193" t="s">
         <v>1506</v>
       </c>
-      <c r="D193" t="s">
+      <c r="G193" t="s">
         <v>1507</v>
       </c>
-      <c r="E193" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="H193" t="s">
         <v>1508</v>
       </c>
-      <c r="G193" t="s">
+      <c r="I193" t="s">
         <v>1509</v>
       </c>
-      <c r="H193" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I193" t="s">
-        <v>1511</v>
-      </c>
       <c r="J193" s="10"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C194" t="s">
         <v>1496</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>1497</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" t="s">
         <v>1498</v>
       </c>
-      <c r="D194" t="s">
+      <c r="F194" t="s">
         <v>1499</v>
       </c>
-      <c r="E194" t="s">
+      <c r="G194" t="s">
         <v>1500</v>
       </c>
-      <c r="F194" t="s">
+      <c r="H194" t="s">
         <v>1501</v>
       </c>
-      <c r="G194" t="s">
+      <c r="I194" t="s">
         <v>1502</v>
       </c>
-      <c r="H194" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1504</v>
-      </c>
       <c r="J194" s="10" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C195" t="s">
         <v>1456</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D195" t="s">
         <v>1457</v>
       </c>
-      <c r="C195" t="s">
+      <c r="E195" t="s">
         <v>1458</v>
       </c>
-      <c r="D195" t="s">
+      <c r="F195" t="s">
         <v>1459</v>
       </c>
-      <c r="E195" t="s">
+      <c r="G195" t="s">
         <v>1460</v>
       </c>
-      <c r="F195" t="s">
+      <c r="H195" t="s">
         <v>1461</v>
       </c>
-      <c r="G195" t="s">
+      <c r="I195" t="s">
         <v>1462</v>
       </c>
-      <c r="H195" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I195" t="s">
-        <v>1464</v>
-      </c>
       <c r="J195" s="10" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C196" t="s">
         <v>1472</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>1473</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E196" t="s">
         <v>1474</v>
       </c>
-      <c r="D196" t="s">
+      <c r="F196" t="s">
         <v>1475</v>
       </c>
-      <c r="E196" t="s">
+      <c r="G196" t="s">
         <v>1476</v>
       </c>
-      <c r="F196" t="s">
+      <c r="H196" t="s">
         <v>1477</v>
       </c>
-      <c r="G196" t="s">
+      <c r="I196" t="s">
         <v>1478</v>
       </c>
-      <c r="H196" t="s">
+      <c r="J196" s="10" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>1479</v>
       </c>
-      <c r="I196" t="s">
+      <c r="B197" t="s">
         <v>1480</v>
       </c>
-      <c r="J196" s="10" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="D197" t="s">
         <v>1481</v>
       </c>
-      <c r="B197" t="s">
+      <c r="F197" t="s">
         <v>1482</v>
       </c>
-      <c r="D197" t="s">
+      <c r="G197" t="s">
         <v>1483</v>
       </c>
-      <c r="F197" t="s">
+      <c r="H197" t="s">
         <v>1484</v>
       </c>
-      <c r="G197" t="s">
+      <c r="I197" t="s">
         <v>1485</v>
       </c>
-      <c r="H197" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I197" t="s">
-        <v>1487</v>
-      </c>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C198" t="s">
         <v>1420</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F198" t="s">
         <v>1421</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1423</v>
       </c>
       <c r="G198" t="s">
         <v>378</v>
       </c>
       <c r="H198" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>1424</v>
       </c>
-      <c r="I198" t="s">
+      <c r="B202" t="s">
         <v>1425</v>
       </c>
-      <c r="J198" s="10" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1446</v>
-      </c>
-      <c r="J199" s="10" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I200" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I201" t="s">
-        <v>1439</v>
-      </c>
-      <c r="J201" s="10" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C202" t="s">
         <v>1426</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>1427</v>
       </c>
-      <c r="C202" t="s">
+      <c r="F202" t="s">
         <v>1428</v>
       </c>
-      <c r="D202" t="s">
+      <c r="G202" t="s">
         <v>1429</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1431</v>
       </c>
       <c r="H202" t="s">
         <v>887</v>
       </c>
       <c r="I202" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C203" t="s">
         <v>1398</v>
       </c>
-      <c r="B203" t="s">
+      <c r="D203" t="s">
         <v>1399</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E203" t="s">
         <v>1400</v>
       </c>
-      <c r="D203" t="s">
+      <c r="F203" t="s">
         <v>1401</v>
       </c>
-      <c r="E203" t="s">
+      <c r="G203" t="s">
         <v>1402</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G203" t="s">
-        <v>1404</v>
       </c>
       <c r="H203" t="s">
         <v>16</v>
       </c>
       <c r="I203" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B204" t="s">
         <v>1405</v>
       </c>
-      <c r="J203" s="10" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
         <v>1406</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>1407</v>
       </c>
-      <c r="C204" t="s">
+      <c r="E204" t="s">
         <v>1408</v>
       </c>
-      <c r="D204" t="s">
+      <c r="F204" t="s">
         <v>1409</v>
       </c>
-      <c r="E204" t="s">
+      <c r="G204" t="s">
         <v>1410</v>
       </c>
-      <c r="F204" t="s">
+      <c r="H204" t="s">
         <v>1411</v>
       </c>
-      <c r="G204" t="s">
+      <c r="I204" t="s">
         <v>1412</v>
       </c>
-      <c r="H204" t="s">
-        <v>1413</v>
-      </c>
-      <c r="I204" t="s">
-        <v>1414</v>
-      </c>
       <c r="J204" s="10" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C205" t="s">
         <v>1367</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1369</v>
       </c>
       <c r="D205" t="s">
         <v>21</v>
@@ -17210,30 +17335,30 @@
         <v>22</v>
       </c>
       <c r="F205" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H205" t="s">
         <v>1370</v>
       </c>
-      <c r="G205" t="s">
+      <c r="I205" t="s">
         <v>1371</v>
       </c>
-      <c r="H205" t="s">
+      <c r="J205" s="10" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>1372</v>
       </c>
-      <c r="I205" t="s">
+      <c r="B206" t="s">
         <v>1373</v>
       </c>
-      <c r="J205" s="10" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
         <v>1374</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1376</v>
       </c>
       <c r="D206" t="s">
         <v>551</v>
@@ -17242,113 +17367,113 @@
         <v>551</v>
       </c>
       <c r="F206" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G206" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H206" t="s">
         <v>388</v>
       </c>
       <c r="I206" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J207" s="10" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B209" t="s">
         <v>1379</v>
       </c>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G207" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I207" t="s">
-        <v>1391</v>
-      </c>
-      <c r="J207" s="10" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G208" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I208" t="s">
-        <v>1366</v>
-      </c>
-      <c r="J208" s="10"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="D209" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F209" t="s">
         <v>1380</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1382</v>
       </c>
       <c r="G209" t="s">
         <v>1025</v>
       </c>
       <c r="H209" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I209" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C210" t="s">
         <v>1796</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
         <v>1797</v>
       </c>
-      <c r="C210" t="s">
+      <c r="F210" t="s">
         <v>1798</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1800</v>
       </c>
       <c r="G210" t="s">
         <v>40</v>
@@ -17357,368 +17482,368 @@
         <v>1019</v>
       </c>
       <c r="I210" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="J210" s="10" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D211" t="s">
         <v>1353</v>
       </c>
-      <c r="B211" t="s">
+      <c r="F211" t="s">
         <v>1354</v>
       </c>
-      <c r="D211" t="s">
+      <c r="G211" t="s">
         <v>1355</v>
       </c>
-      <c r="F211" t="s">
+      <c r="H211" t="s">
         <v>1356</v>
       </c>
-      <c r="G211" t="s">
+      <c r="I211" t="s">
         <v>1357</v>
       </c>
-      <c r="H211" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I211" t="s">
-        <v>1359</v>
-      </c>
       <c r="J211" s="10" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C212" t="s">
         <v>1345</v>
       </c>
-      <c r="B212" t="s">
+      <c r="D212" t="s">
         <v>1346</v>
       </c>
-      <c r="C212" t="s">
+      <c r="E212" t="s">
         <v>1347</v>
       </c>
-      <c r="D212" t="s">
+      <c r="F212" t="s">
         <v>1348</v>
       </c>
-      <c r="E212" t="s">
+      <c r="G212" t="s">
         <v>1349</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G212" t="s">
-        <v>1351</v>
       </c>
       <c r="H212" t="s">
         <v>440</v>
       </c>
       <c r="I212" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D213" t="s">
         <v>1338</v>
       </c>
-      <c r="B213" t="s">
+      <c r="F213" t="s">
         <v>1339</v>
       </c>
-      <c r="D213" t="s">
+      <c r="G213" t="s">
         <v>1340</v>
       </c>
-      <c r="F213" t="s">
+      <c r="H213" t="s">
         <v>1341</v>
       </c>
-      <c r="G213" t="s">
+      <c r="I213" t="s">
         <v>1342</v>
       </c>
-      <c r="H213" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1344</v>
-      </c>
       <c r="J213" s="10" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E214" t="s">
         <v>1332</v>
       </c>
-      <c r="B214" t="s">
+      <c r="F214" t="s">
         <v>1333</v>
       </c>
-      <c r="D214" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="G214" t="s">
         <v>1334</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G214" t="s">
-        <v>1336</v>
       </c>
       <c r="H214" t="s">
         <v>625</v>
       </c>
       <c r="I214" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D215" t="s">
         <v>1326</v>
       </c>
-      <c r="B215" t="s">
+      <c r="E215" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F215" t="s">
         <v>1327</v>
       </c>
-      <c r="D215" t="s">
+      <c r="G215" t="s">
         <v>1328</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1330</v>
       </c>
       <c r="H215" t="s">
         <v>625</v>
       </c>
       <c r="I215" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="J215" s="10" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J216" s="10" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J217" s="10" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G216" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J216" s="10" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G217" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1318</v>
-      </c>
-      <c r="J217" s="10" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C218" t="s">
         <v>1304</v>
       </c>
-      <c r="B218" t="s">
+      <c r="D218" t="s">
         <v>1305</v>
       </c>
-      <c r="C218" t="s">
+      <c r="E218" t="s">
         <v>1306</v>
       </c>
-      <c r="D218" t="s">
+      <c r="F218" t="s">
         <v>1307</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1309</v>
       </c>
       <c r="G218" t="s">
         <v>40</v>
       </c>
       <c r="H218" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I218" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="J218" s="10"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D219" t="s">
         <v>1298</v>
       </c>
-      <c r="B219" t="s">
+      <c r="F219" t="s">
         <v>1299</v>
       </c>
-      <c r="D219" t="s">
+      <c r="G219" t="s">
         <v>1300</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G219" t="s">
-        <v>1302</v>
       </c>
       <c r="H219" t="s">
         <v>589</v>
       </c>
       <c r="I219" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J219" s="10" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D220" t="s">
         <v>1291</v>
       </c>
-      <c r="B220" t="s">
+      <c r="E220" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F220" t="s">
         <v>1292</v>
       </c>
-      <c r="C220" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="G220" t="s">
         <v>1293</v>
       </c>
-      <c r="E220" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="H220" t="s">
         <v>1294</v>
       </c>
-      <c r="G220" t="s">
+      <c r="I220" t="s">
         <v>1295</v>
       </c>
-      <c r="H220" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1297</v>
-      </c>
       <c r="J220" s="10" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C221" t="s">
         <v>1283</v>
       </c>
-      <c r="B221" t="s">
+      <c r="D221" t="s">
         <v>1284</v>
       </c>
-      <c r="C221" t="s">
+      <c r="E221" t="s">
         <v>1285</v>
       </c>
-      <c r="D221" t="s">
+      <c r="F221" t="s">
         <v>1286</v>
       </c>
-      <c r="E221" t="s">
+      <c r="G221" t="s">
         <v>1287</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G221" t="s">
-        <v>1289</v>
       </c>
       <c r="H221" t="s">
         <v>41</v>
       </c>
       <c r="I221" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J221" s="10"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F222" t="s">
         <v>1263</v>
       </c>
-      <c r="B222" t="s">
+      <c r="G222" t="s">
         <v>1264</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1266</v>
       </c>
       <c r="H222" t="s">
         <v>1032</v>
       </c>
       <c r="I222" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J222" s="10" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D223" t="s">
         <v>1257</v>
       </c>
-      <c r="B223" t="s">
+      <c r="E223" t="s">
         <v>1258</v>
       </c>
-      <c r="D223" t="s">
+      <c r="F223" t="s">
         <v>1259</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1261</v>
       </c>
       <c r="G223" t="s">
         <v>743</v>
@@ -17727,134 +17852,134 @@
         <v>213</v>
       </c>
       <c r="I223" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="J223" s="10" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J225" s="10" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G224" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J224" s="10" t="s">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J226" s="10" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G226" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H226" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>1249</v>
       </c>
-      <c r="I226" t="s">
+      <c r="B227" t="s">
         <v>1250</v>
       </c>
-      <c r="J226" s="10" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="D227" t="s">
         <v>1251</v>
       </c>
-      <c r="B227" t="s">
+      <c r="F227" t="s">
         <v>1252</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1254</v>
       </c>
       <c r="G227" t="s">
         <v>40</v>
       </c>
       <c r="H227" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I227" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="J227" s="10" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D228" t="s">
         <v>1239</v>
       </c>
-      <c r="B228" t="s">
+      <c r="F228" t="s">
         <v>1240</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1242</v>
       </c>
       <c r="G228" t="s">
         <v>40</v>
@@ -17863,388 +17988,388 @@
         <v>887</v>
       </c>
       <c r="I228" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J228" s="10" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J229" s="10" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J230" s="10" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J232" s="10" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D233" t="s">
         <v>1777</v>
       </c>
-      <c r="C229" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1782</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1783</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1784</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I230" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J230" s="10" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1927</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1928</v>
-      </c>
-      <c r="G231" t="s">
-        <v>1929</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1930</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1931</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1922</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J232" s="10" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="E233" t="s">
         <v>1912</v>
       </c>
-      <c r="C233" t="s">
+      <c r="F233" t="s">
         <v>1913</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1915</v>
       </c>
       <c r="G233" t="s">
         <v>40</v>
       </c>
       <c r="H233" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="I233" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="J233" s="10" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C234" t="s">
         <v>1903</v>
       </c>
-      <c r="B234" t="s">
+      <c r="D234" t="s">
         <v>1904</v>
       </c>
-      <c r="C234" t="s">
+      <c r="E234" t="s">
         <v>1905</v>
       </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>1906</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1907</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1908</v>
       </c>
       <c r="G234" t="s">
         <v>736</v>
       </c>
       <c r="H234" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="I234" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="J234" s="10"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C235" t="s">
         <v>1875</v>
       </c>
-      <c r="B235" t="s">
+      <c r="D235" t="s">
         <v>1876</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" t="s">
         <v>1877</v>
       </c>
-      <c r="D235" t="s">
+      <c r="F235" t="s">
         <v>1878</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1880</v>
       </c>
       <c r="G235" t="s">
         <v>40</v>
       </c>
       <c r="H235" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>1881</v>
       </c>
-      <c r="I235" t="s">
+      <c r="B237" t="s">
         <v>1882</v>
       </c>
-      <c r="J235" s="10" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1900</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1901</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1902</v>
-      </c>
-      <c r="J236" s="10" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="D237" t="s">
         <v>1883</v>
       </c>
-      <c r="B237" t="s">
+      <c r="F237" t="s">
         <v>1884</v>
       </c>
-      <c r="D237" t="s">
+      <c r="G237" t="s">
         <v>1885</v>
       </c>
-      <c r="F237" t="s">
+      <c r="H237" t="s">
         <v>1886</v>
       </c>
-      <c r="G237" t="s">
+      <c r="I237" t="s">
         <v>1887</v>
       </c>
-      <c r="H237" t="s">
-        <v>1888</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1889</v>
-      </c>
       <c r="J237" s="10"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B238" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D238" t="s">
         <v>1030</v>
       </c>
       <c r="E238" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F238" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="G238" t="s">
         <v>40</v>
       </c>
       <c r="H238" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>1866</v>
       </c>
-      <c r="I238" t="s">
+      <c r="B239" t="s">
         <v>1867</v>
       </c>
-      <c r="J238" s="10" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="D239" t="s">
         <v>1868</v>
       </c>
-      <c r="B239" t="s">
+      <c r="E239" t="s">
         <v>1869</v>
       </c>
-      <c r="D239" t="s">
+      <c r="F239" t="s">
         <v>1870</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1872</v>
       </c>
       <c r="G239" t="s">
         <v>40</v>
       </c>
       <c r="H239" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="I239" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="J239" s="10" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D240" t="s">
         <v>1857</v>
       </c>
-      <c r="B240" t="s">
+      <c r="F240" t="s">
         <v>1858</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1860</v>
       </c>
       <c r="G240" t="s">
         <v>40</v>
       </c>
       <c r="H240" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="I240" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="J240" s="10" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D241" t="s">
         <v>1851</v>
       </c>
-      <c r="B241" t="s">
+      <c r="F241" t="s">
         <v>1852</v>
       </c>
-      <c r="D241" t="s">
+      <c r="G241" t="s">
         <v>1853</v>
       </c>
-      <c r="F241" t="s">
+      <c r="H241" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I241" t="s">
         <v>1854</v>
       </c>
-      <c r="G241" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H241" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1856</v>
-      </c>
       <c r="J241" s="10" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C242" t="s">
         <v>1845</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1847</v>
       </c>
       <c r="D242" t="s">
         <v>551</v>
@@ -18253,196 +18378,196 @@
         <v>551</v>
       </c>
       <c r="F242" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I242" t="s">
         <v>1848</v>
       </c>
-      <c r="G242" t="s">
-        <v>1849</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I242" t="s">
-        <v>1850</v>
-      </c>
       <c r="J242" s="10" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D243" t="s">
         <v>1838</v>
       </c>
-      <c r="B243" t="s">
+      <c r="F243" t="s">
         <v>1839</v>
       </c>
-      <c r="D243" t="s">
+      <c r="G243" t="s">
         <v>1840</v>
       </c>
-      <c r="F243" t="s">
+      <c r="H243" t="s">
         <v>1841</v>
       </c>
-      <c r="G243" t="s">
+      <c r="I243" t="s">
         <v>1842</v>
       </c>
-      <c r="H243" t="s">
-        <v>1843</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1844</v>
-      </c>
       <c r="J243" s="10" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J244" s="10" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J245" s="10" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1805</v>
-      </c>
-      <c r="G244" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1807</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D246" t="s">
         <v>1827</v>
       </c>
-      <c r="B245" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="F246" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G246" t="s">
         <v>1829</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G245" t="s">
-        <v>1831</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1832</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1833</v>
-      </c>
-      <c r="J245" s="10" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G246" t="s">
-        <v>1831</v>
       </c>
       <c r="H246" t="s">
         <v>416</v>
       </c>
       <c r="I246" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="J246" s="10"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C247" t="s">
         <v>1818</v>
       </c>
-      <c r="B247" t="s">
+      <c r="D247" t="s">
         <v>1819</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" t="s">
         <v>1820</v>
       </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>1821</v>
       </c>
-      <c r="E247" t="s">
+      <c r="G247" t="s">
         <v>1822</v>
       </c>
-      <c r="F247" t="s">
+      <c r="H247" t="s">
         <v>1823</v>
       </c>
-      <c r="G247" t="s">
+      <c r="I247" t="s">
         <v>1824</v>
       </c>
-      <c r="H247" t="s">
-        <v>1825</v>
-      </c>
-      <c r="I247" t="s">
-        <v>1826</v>
-      </c>
       <c r="J247" s="10" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C248" t="s">
         <v>1769</v>
       </c>
-      <c r="B248" t="s">
+      <c r="D248" t="s">
         <v>1770</v>
       </c>
-      <c r="C248" t="s">
+      <c r="E248" t="s">
         <v>1771</v>
       </c>
-      <c r="D248" t="s">
+      <c r="F248" t="s">
         <v>1772</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1774</v>
       </c>
       <c r="G248" t="s">
         <v>40</v>
       </c>
       <c r="H248" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I248" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C249" t="s">
         <v>1791</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1793</v>
       </c>
       <c r="D249" t="s">
         <v>551</v>
@@ -18451,7 +18576,7 @@
         <v>551</v>
       </c>
       <c r="F249" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="G249" t="s">
         <v>40</v>
@@ -18460,479 +18585,479 @@
         <v>887</v>
       </c>
       <c r="I249" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="J249" s="10" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D250" t="s">
         <v>1744</v>
       </c>
-      <c r="B250" t="s">
+      <c r="F250" t="s">
         <v>1745</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1747</v>
       </c>
       <c r="G250" t="s">
         <v>867</v>
       </c>
       <c r="H250" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="I250" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C251" t="s">
         <v>1785</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1787</v>
       </c>
       <c r="D251" t="s">
         <v>706</v>
       </c>
       <c r="F251" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="G251" t="s">
         <v>40</v>
       </c>
       <c r="H251" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="I251" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J251" s="10" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D252" t="s">
         <v>1737</v>
       </c>
-      <c r="B252" t="s">
+      <c r="F252" t="s">
         <v>1738</v>
       </c>
-      <c r="D252" t="s">
+      <c r="G252" t="s">
         <v>1739</v>
       </c>
-      <c r="F252" t="s">
+      <c r="H252" t="s">
         <v>1740</v>
       </c>
-      <c r="G252" t="s">
+      <c r="I252" t="s">
         <v>1741</v>
       </c>
-      <c r="H252" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1743</v>
-      </c>
       <c r="J252" s="10" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J253" s="10" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J254" s="10" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G253" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1763</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D254" t="s">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F255" t="s">
         <v>1731</v>
       </c>
-      <c r="E254" t="s">
+      <c r="G255" t="s">
         <v>1732</v>
       </c>
-      <c r="F254" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I254" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="H255" t="s">
         <v>1733</v>
       </c>
-      <c r="G255" t="s">
+      <c r="I255" t="s">
         <v>1734</v>
       </c>
-      <c r="H255" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I255" t="s">
-        <v>1736</v>
-      </c>
       <c r="J255" s="10" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C256" t="s">
         <v>1716</v>
       </c>
-      <c r="B256" t="s">
+      <c r="D256" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F256" t="s">
         <v>1717</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D256" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1719</v>
       </c>
       <c r="G256" t="s">
         <v>378</v>
       </c>
       <c r="H256" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I256" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D257" t="s">
         <v>1702</v>
       </c>
-      <c r="B257" t="s">
+      <c r="E257" t="s">
         <v>1703</v>
       </c>
-      <c r="D257" t="s">
+      <c r="F257" t="s">
         <v>1704</v>
       </c>
-      <c r="E257" t="s">
+      <c r="G257" t="s">
         <v>1705</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G257" t="s">
-        <v>1707</v>
       </c>
       <c r="H257" t="s">
         <v>46</v>
       </c>
       <c r="I257" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="J257" s="10" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C258" t="s">
         <v>1693</v>
       </c>
-      <c r="B258" t="s">
+      <c r="D258" t="s">
         <v>1694</v>
       </c>
-      <c r="C258" t="s">
+      <c r="E258" t="s">
         <v>1695</v>
       </c>
-      <c r="D258" t="s">
+      <c r="F258" t="s">
         <v>1696</v>
       </c>
-      <c r="E258" t="s">
+      <c r="G258" t="s">
         <v>1697</v>
       </c>
-      <c r="F258" t="s">
+      <c r="H258" t="s">
         <v>1698</v>
       </c>
-      <c r="G258" t="s">
+      <c r="I258" t="s">
         <v>1699</v>
       </c>
-      <c r="H258" t="s">
-        <v>1700</v>
-      </c>
-      <c r="I258" t="s">
-        <v>1701</v>
-      </c>
       <c r="J258" s="10"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D259" t="s">
         <v>1586</v>
       </c>
-      <c r="B259" t="s">
+      <c r="E259" t="s">
         <v>1587</v>
       </c>
-      <c r="D259" t="s">
+      <c r="F259" t="s">
         <v>1588</v>
       </c>
-      <c r="E259" t="s">
+      <c r="G259" t="s">
         <v>1589</v>
       </c>
-      <c r="F259" t="s">
+      <c r="H259" t="s">
         <v>1590</v>
       </c>
-      <c r="G259" t="s">
+      <c r="I259" t="s">
         <v>1591</v>
       </c>
-      <c r="H259" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I259" t="s">
-        <v>1593</v>
-      </c>
       <c r="J259" s="10" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D260" t="s">
         <v>1617</v>
       </c>
-      <c r="B260" t="s">
+      <c r="E260" t="s">
         <v>1618</v>
       </c>
-      <c r="D260" t="s">
+      <c r="F260" t="s">
         <v>1619</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1621</v>
       </c>
       <c r="G260" t="s">
         <v>40</v>
       </c>
       <c r="H260" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="I260" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J260" s="10"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C261" t="s">
         <v>1686</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" t="s">
         <v>1687</v>
       </c>
-      <c r="C261" t="s">
+      <c r="E261" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F261" t="s">
         <v>1688</v>
       </c>
-      <c r="D261" t="s">
+      <c r="G261" t="s">
         <v>1689</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1691</v>
       </c>
       <c r="H261" t="s">
         <v>416</v>
       </c>
       <c r="I261" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="J261" s="10" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C262" t="s">
         <v>1678</v>
       </c>
-      <c r="B262" t="s">
+      <c r="D262" t="s">
         <v>1679</v>
       </c>
-      <c r="C262" t="s">
+      <c r="E262" t="s">
         <v>1680</v>
       </c>
-      <c r="D262" t="s">
+      <c r="F262" t="s">
         <v>1681</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1683</v>
       </c>
       <c r="G262" t="s">
         <v>151</v>
       </c>
       <c r="H262" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="I262" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="J262" s="10" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I263" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J263" s="10" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J264" s="10" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G263" t="s">
-        <v>1662</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I263" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J263" s="10" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E264" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1675</v>
-      </c>
-      <c r="G264" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I264" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J264" s="10" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C265" t="s">
         <v>1594</v>
       </c>
-      <c r="B265" t="s">
+      <c r="D265" t="s">
         <v>1595</v>
       </c>
-      <c r="C265" t="s">
+      <c r="E265" t="s">
         <v>1596</v>
       </c>
-      <c r="D265" t="s">
+      <c r="F265" t="s">
         <v>1597</v>
-      </c>
-      <c r="E265" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1599</v>
       </c>
       <c r="G265" t="s">
         <v>40</v>
@@ -18941,257 +19066,318 @@
         <v>589</v>
       </c>
       <c r="I265" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D266" t="s">
         <v>1624</v>
       </c>
-      <c r="B266" t="s">
+      <c r="F266" t="s">
         <v>1625</v>
       </c>
-      <c r="D266" t="s">
+      <c r="G266" t="s">
         <v>1626</v>
       </c>
-      <c r="F266" t="s">
+      <c r="H266" t="s">
         <v>1627</v>
       </c>
-      <c r="G266" t="s">
+      <c r="I266" t="s">
         <v>1628</v>
       </c>
-      <c r="H266" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I266" t="s">
-        <v>1630</v>
-      </c>
       <c r="J266" s="10" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C267" t="s">
         <v>1649</v>
       </c>
-      <c r="B267" t="s">
+      <c r="D267" t="s">
         <v>1650</v>
       </c>
-      <c r="C267" t="s">
+      <c r="F267" t="s">
         <v>1651</v>
       </c>
-      <c r="D267" t="s">
+      <c r="G267" t="s">
         <v>1652</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1654</v>
       </c>
       <c r="H267" t="s">
         <v>582</v>
       </c>
       <c r="I267" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="J267" s="10" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J268" s="10" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J269" s="10" t="s">
         <v>2123</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1647</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1648</v>
-      </c>
-      <c r="J268" s="10" t="s">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J270" s="10" t="s">
         <v>2124</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G269" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1639</v>
-      </c>
-      <c r="J269" s="10" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D270" t="s">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F271" t="s">
         <v>1604</v>
       </c>
-      <c r="E270" t="s">
+      <c r="G271" t="s">
         <v>1605</v>
       </c>
-      <c r="F270" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G270" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1616</v>
-      </c>
-      <c r="J270" s="10" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F271" t="s">
+      <c r="H271" t="s">
         <v>1606</v>
       </c>
-      <c r="G271" t="s">
+      <c r="I271" t="s">
         <v>1607</v>
       </c>
-      <c r="H271" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1609</v>
-      </c>
       <c r="J271" s="10" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C272" t="s">
         <v>1578</v>
       </c>
-      <c r="B272" t="s">
+      <c r="D272" t="s">
         <v>1579</v>
       </c>
-      <c r="C272" t="s">
+      <c r="E272" t="s">
         <v>1580</v>
       </c>
-      <c r="D272" t="s">
+      <c r="F272" t="s">
         <v>1581</v>
       </c>
-      <c r="E272" t="s">
+      <c r="G272" t="s">
         <v>1582</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1584</v>
       </c>
       <c r="H272" t="s">
         <v>704</v>
       </c>
       <c r="I272" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="J272" s="10" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C273" t="s">
         <v>1933</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>1934</v>
       </c>
-      <c r="C273" t="s">
+      <c r="E273" t="s">
         <v>1935</v>
       </c>
-      <c r="D273" t="s">
+      <c r="F273" t="s">
         <v>1936</v>
       </c>
-      <c r="E273" t="s">
+      <c r="G273" t="s">
         <v>1937</v>
       </c>
-      <c r="F273" t="s">
+      <c r="H273" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I273" t="s">
         <v>1938</v>
       </c>
-      <c r="G273" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1940</v>
-      </c>
       <c r="J273" s="10" t="s">
-        <v>2128</v>
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F274" s="12" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H274" s="12" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I274" s="12" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J274" s="13" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F275" s="12" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="H275" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="I275" s="12" t="s">
+        <v>2144</v>
       </c>
     </row>
   </sheetData>
